--- a/biology/Virologie/Site_de_clivage/Site_de_clivage.xlsx
+++ b/biology/Virologie/Site_de_clivage/Site_de_clivage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone ou site de clivage est - pour une protéine (HA) immunogène de surface du virus de la grippe A (dont fait partie le virus de la grippe aviaire) - le lieu d'une séquence d'acides aminés jugée déterminante pour l'expression de la pathogénicité du virus. 
 Les virologues tentent donc de suivre les mutations qui affectent ce site pour sélectionner les souches vaccinales ou mesurer le risque épidémiologique ou éco-épidémiologique présenté par un virus grippal A séquencé.
